--- a/biology/Zoologie/Euselasia_zena/Euselasia_zena.xlsx
+++ b/biology/Zoologie/Euselasia_zena/Euselasia_zena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia zena est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Euselasia.
 </t>
@@ -511,81 +523,95 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euselasia zena a été décrit par William Chapman Hewitson en 1860 sous le nom de Eurygona zena.
-Synonyme : Eurygona coccinella Bates, 1868[1].
-Sous-espèces
-Euselasia zena hermieri Brévignon, 1997; en Guyane.
-Euselasia zena tesora Brévignon et Gallard, 1997;(nom. nud.)[1].
-Formes
-Euselasia zena forme bellis; Stichel, 1919; au Pérou.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia zena a été décrit par William Chapman Hewitson en 1860 sous le nom de Eurygona zena.
+Synonyme : Eurygona coccinella Bates, 1868.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euselasia_zena</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_zena</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euselasia zena hermieri Brévignon, 1997; en Guyane.
+Euselasia zena tesora Brévignon et Gallard, 1997;(nom. nud.).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euselasia_zena</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_zena</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euselasia zena forme bellis; Stichel, 1919; au Pérou.
 Euselasia zena forme coccinea Rebillard, 1958; au Brésil et au Pérou.
 Euselasia zena forme conspicua Lathy, 1958; au Brésil.
 Euselasia zena forme frivola Stichel, 1919
 Euselasia zena forme ictina Rebillard, 1958;
 Euselasia zena forme libanochra Rebillard, 1958; au Brésil.
 Euselasia zena forme meconites Rebillard, 1958; au Brésil.
-Euselasia zena forme mira Stichel, 1924; au Brésil[1],[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euselasia_zena</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euselasia_zena</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia zena est un papillon de couleur noire avec une très grande flaque rouge vif aux antérieures et une tache rouge vif aux postérieures en position anale. L'autre face  marquée d'une ligne de discrets chevrons doublée d'une fine ligne rouge. Le revers pour les antérieures noir suffusé de cuivré avec une ligne blanche submarginale et une deuxième bien espacée. Les postérieures de couleur noire n'ont qu'une ligne blanche plus fine et plus discrète.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Euselasia_zena</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euselasia_zena</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+Euselasia zena forme mira Stichel, 1924; au Brésil,.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,16 +634,114 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia zena est un papillon de couleur noire avec une très grande flaque rouge vif aux antérieures et une tache rouge vif aux postérieures en position anale. L'autre face  marquée d'une ligne de discrets chevrons doublée d'une fine ligne rouge. Le revers pour les antérieures noir suffusé de cuivré avec une ligne blanche submarginale et une deuxième bien espacée. Les postérieures de couleur noire n'ont qu'une ligne blanche plus fine et plus discrète.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_zena</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_zena</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euselasia_zena</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_zena</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia zena est présent en Guyane, Colombie, au Brésil  et au Pérou[1].
-Euselasia zena hermieri est endémique de la Guyane[3].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia zena est présent en Guyane, Colombie, au Brésil  et au Pérou.
+Euselasia zena hermieri est endémique de la Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euselasia_zena</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_zena</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
